--- a/Absensi_Anis_Ahir_Penuh_April_2025.xlsx
+++ b/Absensi_Anis_Ahir_Penuh_April_2025.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\belajar_laravel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ED7B8A3-F997-44E8-AE71-B2174EF7BFFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A94CCAA-61D6-4889-888F-8179DC324C83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Absensi Anis Ahir" sheetId="1" r:id="rId1"/>
@@ -523,28 +523,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="11" width="8.7109375" customWidth="1"/>
+    <col min="7" max="8" width="8.6640625" customWidth="1"/>
+    <col min="9" max="9" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D1" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -555,7 +557,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -566,7 +568,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -598,7 +600,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -622,7 +624,7 @@
         <v>0.37083333333333335</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -646,7 +648,7 @@
         <v>0.35486111111111113</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -670,7 +672,7 @@
         <v>0.37500000000000006</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -694,7 +696,7 @@
         <v>0.37569444444444439</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>21</v>
       </c>
@@ -718,7 +720,7 @@
         <v>0.39583333333333387</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>22</v>
       </c>
@@ -742,7 +744,7 @@
         <v>0.39652777777777803</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>23</v>
       </c>
@@ -766,7 +768,7 @@
         <v>0.41666666666666652</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>24</v>
       </c>
@@ -790,7 +792,7 @@
         <v>0.41736111111111168</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>25</v>
       </c>
@@ -817,7 +819,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>26</v>
       </c>
@@ -845,7 +847,7 @@
       </c>
       <c r="O17" s="4"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>27</v>
       </c>
@@ -874,7 +876,7 @@
       <c r="O18" s="5"/>
       <c r="P18" s="4"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>28</v>
       </c>
@@ -900,7 +902,7 @@
       <c r="O19" s="5"/>
       <c r="P19" s="4"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>29</v>
       </c>
@@ -926,7 +928,7 @@
       <c r="O20" s="5"/>
       <c r="P20" s="4"/>
     </row>
-    <row r="21" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>30</v>
       </c>
@@ -952,7 +954,7 @@
       <c r="O21" s="5"/>
       <c r="P21" s="4"/>
     </row>
-    <row r="22" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>31</v>
       </c>
@@ -978,7 +980,7 @@
       <c r="O22" s="5"/>
       <c r="P22" s="4"/>
     </row>
-    <row r="23" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>32</v>
       </c>
@@ -1004,7 +1006,7 @@
       <c r="O23" s="5"/>
       <c r="P23" s="4"/>
     </row>
-    <row r="24" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>33</v>
       </c>
@@ -1030,7 +1032,7 @@
       <c r="O24" s="5"/>
       <c r="P24" s="4"/>
     </row>
-    <row r="25" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>34</v>
       </c>
@@ -1056,7 +1058,7 @@
       <c r="O25" s="5"/>
       <c r="P25" s="4"/>
     </row>
-    <row r="26" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>35</v>
       </c>
@@ -1082,7 +1084,7 @@
       <c r="O26" s="5"/>
       <c r="P26" s="4"/>
     </row>
-    <row r="27" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>36</v>
       </c>
@@ -1103,7 +1105,7 @@
       <c r="O27" s="5"/>
       <c r="P27" s="4"/>
     </row>
-    <row r="28" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>37</v>
       </c>
@@ -1122,7 +1124,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="29" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>38</v>
       </c>
@@ -1139,102 +1141,102 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="31" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="33" spans="13:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="34" spans="13:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" spans="13:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="31" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="32" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="33" spans="13:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="34" spans="13:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="35" spans="13:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="M35" s="6"/>
       <c r="N35" s="6"/>
     </row>
-    <row r="36" spans="13:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="13:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="M36" s="5"/>
     </row>
-    <row r="37" spans="13:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="13:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="M37" s="5"/>
     </row>
-    <row r="38" spans="13:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="13:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="M38" s="5"/>
     </row>
-    <row r="39" spans="13:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="13:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="M39" s="5"/>
     </row>
-    <row r="40" spans="13:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="13:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="M40" s="5"/>
     </row>
-    <row r="41" spans="13:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="13:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="M41" s="5"/>
     </row>
-    <row r="42" spans="13:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="13:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="M42" s="5"/>
     </row>
-    <row r="43" spans="13:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="13:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="M43" s="5"/>
     </row>
-    <row r="44" spans="13:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="13:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="M44" s="5"/>
     </row>
-    <row r="45" spans="13:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="13:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="M45" s="5"/>
     </row>
-    <row r="46" spans="13:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="13:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="M46" s="5"/>
     </row>
-    <row r="47" spans="13:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="48" spans="13:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="47" spans="13:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="48" spans="13:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
